--- a/05_Recetas_Productos.xlsx
+++ b/05_Recetas_Productos.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,6 +1406,413 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PR007</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Campo Silvestre</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FL015</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Gerbera Naranja</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tallos</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PR007</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Campo Silvestre</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FL016</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Gerbera Rosado</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tallos</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PR007</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Campo Silvestre</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FL018</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Alstroemeria Morado</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Tallos</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PR007</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Campo Silvestre</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FL020</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Solidago Amarillo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Ramas</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PR007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Campo Silvestre</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FL019</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Eucalipto Verde</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Ramas</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PR007</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Campo Silvestre</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CO011</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Contenedor</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Canasto Mimbre Rectangular</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Unidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PR009</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ramo Clásico</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>FL001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rosa Roja</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Tallos</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PR009</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ramo Clásico</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FL019</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Eucalipto Verde</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Ramas</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PR010</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Amor Eterno</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FL001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Rosa Roja</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tallos</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PR010</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Amor Eterno</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FL003</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Rosa Rosado</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tallos</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PR010</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Amor Eterno</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CO014</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Contenedor</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Caja Cuadrada Negra</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Unidad</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
